--- a/SectionsFHIRCorps/ig/StructureDefinition-fr-lm-statut-document-entree.xlsx
+++ b/SectionsFHIRCorps/ig/StructureDefinition-fr-lm-statut-document-entree.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-01-16T14:35:31+00:00</t>
+    <t>2026-01-19T14:02:43+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/SectionsFHIRCorps/ig/StructureDefinition-fr-lm-statut-document-entree.xlsx
+++ b/SectionsFHIRCorps/ig/StructureDefinition-fr-lm-statut-document-entree.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-01-19T14:02:43+00:00</t>
+    <t>2026-01-19T14:05:23+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
